--- a/database/industry_classification/icb.xlsx
+++ b/database/industry_classification/icb.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\PhuHung\DataBase\Industry Classification Standards\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiepdang\PycharmProjects\datadriven-project\database\industry_classification\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="28800" windowHeight="11535"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="28800" windowHeight="11535"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -10326,7 +10326,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,##0.00%"/>
     <numFmt numFmtId="165" formatCode="##0"/>
@@ -10808,7 +10808,7 @@
   <dimension ref="A1:G1649"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
